--- a/doc/Testcases.xlsx
+++ b/doc/Testcases.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="3" r:id="rId1"/>
     <sheet name="Iteration1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Schedule</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -129,6 +130,9 @@
   </si>
   <si>
     <t>user can see list of receipt information</t>
+  </si>
+  <si>
+    <t>2008-08-102016-05-26</t>
   </si>
 </sst>
 </file>
@@ -577,48 +581,21 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,19 +611,7 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +626,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,46 +678,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,7 +997,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,104 +1013,104 @@
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="46">
+      <c r="B1" s="22">
         <f ca="1">TODAY()</f>
-        <v>42512</v>
+        <v>42516</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1118,7 +1122,7 @@
   <dimension ref="A3:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F18"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,244 +1132,258 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>39670</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45">
         <v>39671</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="7">
+      <c r="D6" s="46"/>
+      <c r="E6" s="43">
         <v>39673</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9">
+      <c r="F6" s="44"/>
+      <c r="G6" s="45">
         <v>39673</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f>COUNTA(C14:D42)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="7">
         <f>A10-COUNTIF(I14:I42,"N/A")</f>
         <v>3</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="8">
         <f>COUNTIF(I14:I42,"Pass")</f>
         <v>5</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="8">
         <f>COUNTIF(I14:I42,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="9">
         <f>COUNTIF(J14:J42,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="10">
         <f>C10/B10</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="G10" s="20" t="e">
+      <c r="G10" s="39" t="e">
         <f>E10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="4" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="23" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="35"/>
+      <c r="I13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="34" t="s">
+      <c r="F14" s="33"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>5</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="45"/>
+      <c r="J18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
@@ -1382,20 +1400,6 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
@@ -1408,4 +1412,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/Testcases.xlsx
+++ b/doc/Testcases.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-300" yWindow="460" windowWidth="38400" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="3" r:id="rId1"/>
     <sheet name="Iteration1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Iteration2" sheetId="5" r:id="rId3"/>
+    <sheet name="Iteration3" sheetId="6" r:id="rId4"/>
+    <sheet name="Iteration4" sheetId="7" r:id="rId5"/>
+    <sheet name="Iteration5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
   <si>
     <t>Schedule</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -130,9 +133,6 @@
   </si>
   <si>
     <t>user can see list of receipt information</t>
-  </si>
-  <si>
-    <t>2008-08-102016-05-26</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -645,77 +645,89 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,7 +1027,7 @@
       </c>
       <c r="B1" s="22">
         <f ca="1">TODAY()</f>
-        <v>42516</v>
+        <v>42517</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1026,91 +1038,91 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>1</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <v>2</v>
       </c>
       <c r="B5" s="19"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <v>3</v>
       </c>
       <c r="B6" s="19"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="27"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <v>4</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="27"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <v>5</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1121,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,65 +1145,61 @@
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="29"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45">
-        <v>39671</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="43">
-        <v>39673</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45">
-        <v>39673</v>
-      </c>
-      <c r="H6" s="46"/>
+      <c r="A6" s="38">
+        <v>42531</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>42533</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="29"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1212,10 +1220,10 @@
       <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="29"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -1228,7 +1236,7 @@
       </c>
       <c r="C10" s="8">
         <f>COUNTIF(I14:I42,"Pass")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="8">
         <f>COUNTIF(I14:I42,"Fail")</f>
@@ -1240,13 +1248,13 @@
       </c>
       <c r="F10" s="10">
         <f>C10/B10</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G10" s="39" t="e">
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="e">
         <f>E10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1257,18 +1265,18 @@
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="35"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1281,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="15"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="31"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1301,16 +1309,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="20" t="s">
         <v>19</v>
       </c>
@@ -1321,16 +1329,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="26"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="20" t="s">
         <v>19</v>
       </c>
@@ -1341,15 +1349,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1357,19 +1363,38 @@
         <v>5</v>
       </c>
       <c r="B18" s="19"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
@@ -1379,27 +1404,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
@@ -1416,12 +1420,1156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>42545</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>42547</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>COUNTA(C14:D42)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <f>A10-COUNTIF(I14:I42,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <f>COUNTIF(I14:I42,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <f>COUNTIF(I14:I42,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f>COUNTIF(J14:J42,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>C10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="e">
+        <f>E10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>42559</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>42561</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>COUNTA(C14:D42)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <f>A10-COUNTIF(I14:I42,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <f>COUNTIF(I14:I42,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <f>COUNTIF(I14:I42,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f>COUNTIF(J14:J42,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>C10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="e">
+        <f>E10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>42573</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>42575</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>COUNTA(C14:D42)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <f>A10-COUNTIF(I14:I42,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <f>COUNTIF(I14:I42,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <f>COUNTIF(I14:I42,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f>COUNTIF(J14:J42,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>C10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="e">
+        <f>E10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>42587</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40">
+        <v>42589</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>COUNTA(C14:D42)</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="7">
+        <f>A10-COUNTIF(I14:I42,"N/A")</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="8">
+        <f>COUNTIF(I14:I42,"Pass")</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
+        <f>COUNTIF(I14:I42,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <f>COUNTIF(J14:J42,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f>C10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="46" t="e">
+        <f>E10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
+        <v>4</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/doc/Testcases.xlsx
+++ b/doc/Testcases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="460" windowWidth="38400" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27860" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="3" r:id="rId1"/>
-    <sheet name="Iteration1" sheetId="1" r:id="rId2"/>
-    <sheet name="Iteration2" sheetId="5" r:id="rId3"/>
-    <sheet name="Iteration3" sheetId="6" r:id="rId4"/>
-    <sheet name="Iteration4" sheetId="7" r:id="rId5"/>
-    <sheet name="Iteration5" sheetId="8" r:id="rId6"/>
+    <sheet name="Iteration1" sheetId="5" r:id="rId2"/>
+    <sheet name="Iteration2" sheetId="6" r:id="rId3"/>
+    <sheet name="Iteration3" sheetId="7" r:id="rId4"/>
+    <sheet name="Iteration4" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
   <si>
     <t>Schedule</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -133,6 +135,196 @@
   </si>
   <si>
     <t>user can see list of receipt information</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>UC-1</t>
+  </si>
+  <si>
+    <t>UC-2</t>
+  </si>
+  <si>
+    <t>UC-3</t>
+  </si>
+  <si>
+    <t>UC-4</t>
+  </si>
+  <si>
+    <t>UC-5</t>
+  </si>
+  <si>
+    <t>UC-6</t>
+  </si>
+  <si>
+    <t>UC-7</t>
+  </si>
+  <si>
+    <t>UC-8</t>
+  </si>
+  <si>
+    <t>UC-9</t>
+  </si>
+  <si>
+    <t>UC-10</t>
+  </si>
+  <si>
+    <t>UC-11</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>At login screen, check the availability of sign up menu and check the functionality of sign up menu</t>
+  </si>
+  <si>
+    <t>There is sign up button or link is available and if user select the button, user can enter their information to sign up</t>
+  </si>
+  <si>
+    <t>Filling out sign up form and submit the form</t>
+  </si>
+  <si>
+    <t>There is a message feedback after user successfully submit the register form. After signing up, user should receive confirmation email with the email registered at sign up form.</t>
+  </si>
+  <si>
+    <t>If user miss some required field at the sign up form, submit button should be inactive</t>
+  </si>
+  <si>
+    <t>If some required field is unfilled, check the submit button</t>
+  </si>
+  <si>
+    <t>Before confirm email received, check login function.</t>
+  </si>
+  <si>
+    <t>Without confirm the email, user can not log in</t>
+  </si>
+  <si>
+    <t>After user confirm the email by selecting link at the email, check login function.</t>
+  </si>
+  <si>
+    <t>After confirmation, user can login successfully</t>
+  </si>
+  <si>
+    <t>Check functionality of login</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>User can login with registered email id</t>
+  </si>
+  <si>
+    <t>User can login with registered 3rdParty login ID such as Facebook, Google, Twitter.</t>
+  </si>
+  <si>
+    <t>Check the existence of login with 3rd party account at the login screen and check whether User can login using by selecting login with 3rdParty ID.</t>
+  </si>
+  <si>
+    <t>After login, check whether there is a menu for checking account information and User can edit his account information at the menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before login, there should not be the menu for editing user information, but after login, user can change his account information </t>
+  </si>
+  <si>
+    <t>After login, go to the menu for viewing list of receipts</t>
+  </si>
+  <si>
+    <t>After login, there's menu for viewing list of receipt which is uploaded by the user only</t>
+  </si>
+  <si>
+    <t>Check the column information of receipt list</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Select one of items for viewing details</t>
+  </si>
+  <si>
+    <t>Receipt information will have date,  store, category, total, tag</t>
+  </si>
+  <si>
+    <t>At detail, it will show receipt's detail information such as date of purchase, store, category, total,  comment, tag, picture of receipt.</t>
+  </si>
+  <si>
+    <t>At mobile, go to the menu of create receipt</t>
+  </si>
+  <si>
+    <t>The phone will be in preview state of taking picture</t>
+  </si>
+  <si>
+    <t>Check preview screen</t>
+  </si>
+  <si>
+    <t>There shoule be some feedback to the user to help taking picture of receipt for better character recognition</t>
+  </si>
+  <si>
+    <t>There's menu to take picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If user select taking picture, result of character recognition for total and store name will be presented to the user
+And User can edit the information </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the result </t>
+  </si>
+  <si>
+    <t>After saving the information, there's feedback it was saved succssfully or not and will be redirected to the list of receipt</t>
+  </si>
+  <si>
+    <t>Cacel the result</t>
+  </si>
+  <si>
+    <t>If user select cancel instead of save, it will go to the preview status</t>
+  </si>
+  <si>
+    <t>At mobile, go to edit recipt information which is presented at list view of receipt or detail view of receipt</t>
+  </si>
+  <si>
+    <t>User can edit receipt information manually and after saving it will go to previous state.</t>
+  </si>
+  <si>
+    <t>After Sync, check the updated information at web app</t>
+  </si>
+  <si>
+    <t>After sync, updated receipt information can be seen at Web app</t>
+  </si>
+  <si>
+    <t>Delete one of items and check the list of recipt</t>
+  </si>
+  <si>
+    <t>User can delete one or more receipt at the receipt list or receipt detail</t>
+  </si>
+  <si>
+    <t>Search one recipt with keyword at the search menu box</t>
+  </si>
+  <si>
+    <t>User can search receipt by keywords</t>
+  </si>
+  <si>
+    <t>Select a filter at the list</t>
+  </si>
+  <si>
+    <t>User can filter receipt by store, category, date</t>
+  </si>
+  <si>
+    <t>User can add tag at the list of receipt or detail view of receipt</t>
+  </si>
+  <si>
+    <t>Select Adding Tag at the receipt list</t>
+  </si>
+  <si>
+    <t>Select Addinng Category for the store</t>
+  </si>
+  <si>
+    <t>There is a menu for adding or modifying store's category</t>
+  </si>
+  <si>
+    <t>User can get a report on spendings based on recipt uploaded in various forms, such as with designated period or by category or by store</t>
+  </si>
+  <si>
+    <t>Go to Report menu(Chart) and try to change type of report</t>
   </si>
 </sst>
 </file>
@@ -205,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -575,11 +767,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -587,15 +818,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,9 +831,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +909,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -702,38 +975,166 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1006,130 +1407,1221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="5" width="56" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22">
+      <c r="B3" s="18">
         <f ca="1">TODAY()</f>
-        <v>42517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+        <v>42541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="27" t="s">
+      <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="29" t="s">
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>14</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>18</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>20</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="32"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>22</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33" t="s">
+      <c r="B27" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>23</v>
       </c>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="31" t="s">
+      <c r="B28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>24</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="B29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Both">
+      <formula>NOT(ISERROR(SEARCH("Both",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Mobile">
+      <formula>NOT(ISERROR(SEARCH("Mobile",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52">
+        <v>42545</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
+        <v>42547</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>COUNTA(C14:D42)</f>
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <f>A10-COUNTIF(I14:I42,"N/A")</f>
+        <v>48</v>
+      </c>
+      <c r="C10" s="5">
+        <f>COUNTIF(G19:G42,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>COUNTIF(G19:G42,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>COUNTIF(H14:H42,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <f>C10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="47" t="e">
+        <f>E10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="59"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="59"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>2</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>4</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+    </row>
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>6</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>7</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>9</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+    </row>
+    <row r="23" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>10</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>11</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+    </row>
+    <row r="25" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>13</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+    </row>
+    <row r="27" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>14</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>15</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>16</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+    </row>
+    <row r="30" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>17</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>18</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>19</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>20</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>21</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+    </row>
+    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>22</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+    </row>
+    <row r="36" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>23</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>24</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C13:C37">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Web">
+      <formula>NOT(ISERROR(SEARCH("Web",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Both">
+      <formula>NOT(ISERROR(SEARCH("Both",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Mobile">
+      <formula>NOT(ISERROR(SEARCH("Mobile",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G18">
+      <formula1>"Pass,Fail,N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J18"/>
   <sheetViews>
@@ -1145,67 +2637,67 @@
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>42531</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
-        <v>42533</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="A6" s="52">
+        <v>42559</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
+        <v>42561</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1214,177 +2706,175 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <f>COUNTA(C14:D42)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <f>A10-COUNTIF(I14:I42,"N/A")</f>
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f>COUNTIF(I14:I42,"Pass")</f>
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f>COUNTIF(I14:I42,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f>COUNTIF(J14:J42,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f>C10/B10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="46" t="e">
+      <c r="G10" s="47" t="e">
         <f>E10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="16" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="45"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="45"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="45"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>5</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="45"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
@@ -1395,15 +2885,17 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
@@ -1418,12 +2910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1434,67 +2926,67 @@
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>42545</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
-        <v>42547</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="A6" s="52">
+        <v>42573</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
+        <v>42575</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1503,166 +2995,187 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <f>COUNTA(C14:D42)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <f>A10-COUNTIF(I14:I42,"N/A")</f>
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f>COUNTIF(I14:I42,"Pass")</f>
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f>COUNTIF(I14:I42,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f>COUNTIF(J14:J42,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f>C10/B10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="46" t="e">
+      <c r="G10" s="47" t="e">
         <f>E10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="16" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="45"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="45"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="45"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>5</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="45"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -1672,27 +3185,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
@@ -1700,295 +3192,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
       <formula1>"Pass,Fail,N/A"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J18"/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>42559</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
-        <v>42561</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f>COUNTA(C14:D42)</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <f>A10-COUNTIF(I14:I42,"N/A")</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <f>COUNTIF(I14:I42,"Pass")</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <f>COUNTIF(I14:I42,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <f>COUNTIF(J14:J42,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <f>C10/B10</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="46" t="e">
-        <f>E10/D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
-      <formula1>"Pass,Fail,N/A"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
-      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2012,67 +3215,67 @@
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="28"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>42573</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
-        <v>42575</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
+      <c r="A6" s="52">
+        <v>42587</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54">
+        <v>42589</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="28"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2081,166 +3284,187 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <f>COUNTA(C14:D42)</f>
         <v>3</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <f>A10-COUNTIF(I14:I42,"N/A")</f>
         <v>3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <f>COUNTIF(I14:I42,"Pass")</f>
         <v>3</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <f>COUNTIF(I14:I42,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <f>COUNTIF(J14:J42,"Yes")</f>
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="7">
         <f>C10/B10</f>
         <v>1</v>
       </c>
-      <c r="G10" s="46" t="e">
+      <c r="G10" s="47" t="e">
         <f>E10/D10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="48" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="10">
         <v>1</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="42"/>
+      <c r="E14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="16" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="45"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <v>3</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="35"/>
+      <c r="E16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="45"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="45"/>
       <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <v>5</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="45"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -2250,316 +3474,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J18">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
-      <formula1>"Pass,Fail,N/A"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J18"/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="6" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>42587</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40">
-        <v>42589</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <f>COUNTA(C14:D42)</f>
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <f>A10-COUNTIF(I14:I42,"N/A")</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <f>COUNTIF(I14:I42,"Pass")</f>
-        <v>3</v>
-      </c>
-      <c r="D10" s="8">
-        <f>COUNTIF(I14:I42,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <f>COUNTIF(J14:J42,"Yes")</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <f>C10/B10</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="46" t="e">
-        <f>E10/D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
-        <v>3</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18">
-        <v>4</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
-        <v>5</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-    </row>
-  </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14:I18">
